--- a/FM playable league reputations.xlsx
+++ b/FM playable league reputations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsa2\Documents\GitHub\fm_analise_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29D7D8-7488-4683-968E-CEEB7408A013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8439AA-8DA7-45A3-ADDD-929C2C58F27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leagues_map" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="nation_youth_ratings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">orig_data!$A$6:$E$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">orig_data!$A$6:$F$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="382">
   <si>
     <t>STARS</t>
   </si>
@@ -466,9 +466,6 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>LaLiga Santander</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -493,9 +490,6 @@
     <t>South America</t>
   </si>
   <si>
-    <t>Campeonato Brasileiro Assai Serie A</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
@@ -664,9 +658,6 @@
     <t>Casa Liga I</t>
   </si>
   <si>
-    <t>Campeonato Brasileiro SportingBet Serie B</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -796,9 +787,6 @@
     <t>OLIMP Football National League</t>
   </si>
   <si>
-    <t>1B Pro League</t>
-  </si>
-  <si>
     <t>Liga Leumit</t>
   </si>
   <si>
@@ -856,9 +844,6 @@
     <t>Vtora Profesionalna Liga</t>
   </si>
   <si>
-    <t>eerste nationale</t>
-  </si>
-  <si>
     <t>Ykkonen</t>
   </si>
   <si>
@@ -1010,6 +995,195 @@
   </si>
   <si>
     <t>Vanarama National League North</t>
+  </si>
+  <si>
+    <t>Serie C NOW</t>
+  </si>
+  <si>
+    <t>Serie D Girone</t>
+  </si>
+  <si>
+    <t>Liga Eccellenza</t>
+  </si>
+  <si>
+    <t>LALIGA EA SPORTS</t>
+  </si>
+  <si>
+    <t>LALIGA HYPERMOTION</t>
+  </si>
+  <si>
+    <t>Regionalliga</t>
+  </si>
+  <si>
+    <t>Challenger Pro Legue</t>
+  </si>
+  <si>
+    <t>Nationale 1</t>
+  </si>
+  <si>
+    <t>Brasileirão Betano Serie A</t>
+  </si>
+  <si>
+    <t>Brasileirão Serie B Betnacional</t>
+  </si>
+  <si>
+    <t>Ping An Chinese Footbnall Association Super League</t>
+  </si>
+  <si>
+    <t>SuperSport Hrvatska nogometna liga</t>
+  </si>
+  <si>
+    <t>Championnat de France amateur</t>
+  </si>
+  <si>
+    <t>Staiximan Super League</t>
+  </si>
+  <si>
+    <t>Super League 2 Betsson</t>
+  </si>
+  <si>
+    <t>Sports Direct Premiership</t>
+  </si>
+  <si>
+    <t>PKO Polski Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Liga Portugal Betclic</t>
+  </si>
+  <si>
+    <t>Tinkoff Russian Premier League</t>
+  </si>
+  <si>
+    <t>Prva liga Srbija</t>
+  </si>
+  <si>
+    <t>Primera Federacíon</t>
+  </si>
+  <si>
+    <t>Segunda Federacíon</t>
+  </si>
+  <si>
+    <t>Raiffeisen Super League</t>
+  </si>
+  <si>
+    <t>Brack.ch Challenge League</t>
+  </si>
+  <si>
+    <t>Favbet Liha</t>
+  </si>
+  <si>
+    <t>Torneo Uruguayo Copa Coca-Cola</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Bielorrusia</t>
+  </si>
+  <si>
+    <t>Belgica</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Croácia</t>
+  </si>
+  <si>
+    <t>Chéquia</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>Inglaterra</t>
+  </si>
+  <si>
+    <t>Finlandia</t>
+  </si>
+  <si>
+    <t>Franca</t>
+  </si>
+  <si>
+    <t>Alemanha</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>Hungria</t>
+  </si>
+  <si>
+    <t>Islandia</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Koreia</t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>Malasia</t>
+  </si>
+  <si>
+    <t>Paises Baixos</t>
+  </si>
+  <si>
+    <t>Irlanda do Norte</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>Republica da Irlanda</t>
+  </si>
+  <si>
+    <t>Romenia</t>
+  </si>
+  <si>
+    <t>Escócia</t>
+  </si>
+  <si>
+    <t>Servia</t>
+  </si>
+  <si>
+    <t>Singapura</t>
+  </si>
+  <si>
+    <t>Eslováquia</t>
+  </si>
+  <si>
+    <t>Africa do Sul</t>
+  </si>
+  <si>
+    <t>Espanha</t>
+  </si>
+  <si>
+    <t>Suecia</t>
+  </si>
+  <si>
+    <t>Suica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turquia </t>
+  </si>
+  <si>
+    <t>Ucrania</t>
+  </si>
+  <si>
+    <t>Uruguai</t>
+  </si>
+  <si>
+    <t>Usa</t>
+  </si>
+  <si>
+    <t>Pais de Gales</t>
   </si>
 </sst>
 </file>
@@ -1017,9 +1191,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1050,6 +1224,21 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1120,7 +1309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1233,11 +1422,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1279,26 +1481,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1672,7 +1878,7 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="19">
         <f>A2-4/152</f>
         <v>4.4736842105263159</v>
       </c>
@@ -1692,7 +1898,7 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="19">
         <f t="shared" ref="A4:A67" si="0">A3-4/152</f>
         <v>4.4473684210526319</v>
       </c>
@@ -1712,7 +1918,7 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>4.4210526315789478</v>
       </c>
@@ -1732,7 +1938,7 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>4.3947368421052637</v>
       </c>
@@ -1752,7 +1958,7 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>4.3684210526315796</v>
       </c>
@@ -1771,7 +1977,7 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>4.3421052631578956</v>
       </c>
@@ -1791,7 +1997,7 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>4.3157894736842115</v>
       </c>
@@ -1811,7 +2017,7 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>4.2894736842105274</v>
       </c>
@@ -1831,7 +2037,7 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>4.2631578947368434</v>
       </c>
@@ -1853,7 +2059,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>4.2368421052631593</v>
       </c>
@@ -1875,7 +2081,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>4.2105263157894752</v>
       </c>
@@ -1897,7 +2103,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>4.1842105263157912</v>
       </c>
@@ -1916,7 +2122,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="19">
         <f t="shared" si="0"/>
         <v>4.1578947368421071</v>
       </c>
@@ -1936,7 +2142,7 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="19">
         <f t="shared" si="0"/>
         <v>4.131578947368423</v>
       </c>
@@ -1955,7 +2161,7 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="19">
         <f t="shared" si="0"/>
         <v>4.1052631578947389</v>
       </c>
@@ -1974,7 +2180,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+      <c r="A18" s="19">
         <f t="shared" si="0"/>
         <v>4.0789473684210549</v>
       </c>
@@ -1994,7 +2200,7 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="A19" s="19">
         <f t="shared" si="0"/>
         <v>4.0526315789473708</v>
       </c>
@@ -2014,7 +2220,7 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="19">
         <f t="shared" si="0"/>
         <v>4.0263157894736867</v>
       </c>
@@ -2034,7 +2240,7 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="19">
         <f t="shared" si="0"/>
         <v>4.0000000000000027</v>
       </c>
@@ -2056,7 +2262,7 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="A22" s="19">
         <f t="shared" si="0"/>
         <v>3.9736842105263186</v>
       </c>
@@ -2076,7 +2282,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="19">
         <f t="shared" si="0"/>
         <v>3.9473684210526345</v>
       </c>
@@ -2096,7 +2302,7 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="A24" s="19">
         <f t="shared" si="0"/>
         <v>3.9210526315789505</v>
       </c>
@@ -2116,7 +2322,7 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
+      <c r="A25" s="19">
         <f t="shared" si="0"/>
         <v>3.8947368421052664</v>
       </c>
@@ -2136,7 +2342,7 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="19">
         <f t="shared" si="0"/>
         <v>3.8684210526315823</v>
       </c>
@@ -2155,7 +2361,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+      <c r="A27" s="19">
         <f t="shared" si="0"/>
         <v>3.8421052631578982</v>
       </c>
@@ -2175,7 +2381,7 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+      <c r="A28" s="19">
         <f t="shared" si="0"/>
         <v>3.8157894736842142</v>
       </c>
@@ -2194,7 +2400,7 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="A29" s="19">
         <f t="shared" si="0"/>
         <v>3.7894736842105301</v>
       </c>
@@ -2216,7 +2422,7 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+      <c r="A30" s="19">
         <f t="shared" si="0"/>
         <v>3.763157894736846</v>
       </c>
@@ -2238,7 +2444,7 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+      <c r="A31" s="19">
         <f t="shared" si="0"/>
         <v>3.736842105263162</v>
       </c>
@@ -2257,7 +2463,7 @@
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+      <c r="A32" s="19">
         <f t="shared" si="0"/>
         <v>3.7105263157894779</v>
       </c>
@@ -2277,7 +2483,7 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
+      <c r="A33" s="19">
         <f t="shared" si="0"/>
         <v>3.6842105263157938</v>
       </c>
@@ -2299,7 +2505,7 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
+      <c r="A34" s="19">
         <f t="shared" si="0"/>
         <v>3.6578947368421098</v>
       </c>
@@ -2319,7 +2525,7 @@
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
+      <c r="A35" s="19">
         <f t="shared" si="0"/>
         <v>3.6315789473684257</v>
       </c>
@@ -2339,7 +2545,7 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
+      <c r="A36" s="19">
         <f t="shared" si="0"/>
         <v>3.6052631578947416</v>
       </c>
@@ -2359,7 +2565,7 @@
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="28">
+      <c r="A37" s="19">
         <f t="shared" si="0"/>
         <v>3.5789473684210575</v>
       </c>
@@ -2379,7 +2585,7 @@
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
+      <c r="A38" s="19">
         <f t="shared" si="0"/>
         <v>3.5526315789473735</v>
       </c>
@@ -2399,7 +2605,7 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
+      <c r="A39" s="19">
         <f t="shared" si="0"/>
         <v>3.5263157894736894</v>
       </c>
@@ -2419,7 +2625,7 @@
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="19">
         <f t="shared" si="0"/>
         <v>3.5000000000000053</v>
       </c>
@@ -2441,7 +2647,7 @@
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+      <c r="A41" s="19">
         <f t="shared" si="0"/>
         <v>3.4736842105263213</v>
       </c>
@@ -2465,7 +2671,7 @@
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="19">
         <f t="shared" si="0"/>
         <v>3.4473684210526372</v>
       </c>
@@ -2485,7 +2691,7 @@
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="28">
+      <c r="A43" s="19">
         <f t="shared" si="0"/>
         <v>3.4210526315789531</v>
       </c>
@@ -2507,7 +2713,7 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
+      <c r="A44" s="19">
         <f t="shared" si="0"/>
         <v>3.394736842105269</v>
       </c>
@@ -2527,7 +2733,7 @@
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
+      <c r="A45" s="19">
         <f t="shared" si="0"/>
         <v>3.368421052631585</v>
       </c>
@@ -2549,7 +2755,7 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
+      <c r="A46" s="19">
         <f t="shared" si="0"/>
         <v>3.3421052631579009</v>
       </c>
@@ -2569,7 +2775,7 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
+      <c r="A47" s="19">
         <f t="shared" si="0"/>
         <v>3.3157894736842168</v>
       </c>
@@ -2591,7 +2797,7 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
+      <c r="A48" s="19">
         <f t="shared" si="0"/>
         <v>3.2894736842105328</v>
       </c>
@@ -2613,7 +2819,7 @@
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="28">
+      <c r="A49" s="19">
         <f t="shared" si="0"/>
         <v>3.2631578947368487</v>
       </c>
@@ -2635,7 +2841,7 @@
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
+      <c r="A50" s="19">
         <f t="shared" si="0"/>
         <v>3.2368421052631646</v>
       </c>
@@ -2657,7 +2863,7 @@
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="28">
+      <c r="A51" s="19">
         <f t="shared" si="0"/>
         <v>3.2105263157894806</v>
       </c>
@@ -2681,7 +2887,7 @@
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
+      <c r="A52" s="19">
         <f t="shared" si="0"/>
         <v>3.1842105263157965</v>
       </c>
@@ -2705,7 +2911,7 @@
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="28">
+      <c r="A53" s="19">
         <f t="shared" si="0"/>
         <v>3.1578947368421124</v>
       </c>
@@ -2731,7 +2937,7 @@
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="28">
+      <c r="A54" s="19">
         <f t="shared" si="0"/>
         <v>3.1315789473684283</v>
       </c>
@@ -2753,7 +2959,7 @@
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="28">
+      <c r="A55" s="19">
         <f t="shared" si="0"/>
         <v>3.1052631578947443</v>
       </c>
@@ -2773,7 +2979,7 @@
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
+      <c r="A56" s="19">
         <f t="shared" si="0"/>
         <v>3.0789473684210602</v>
       </c>
@@ -2795,7 +3001,7 @@
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="28">
+      <c r="A57" s="19">
         <f t="shared" si="0"/>
         <v>3.0526315789473761</v>
       </c>
@@ -2815,7 +3021,7 @@
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="28">
+      <c r="A58" s="19">
         <f t="shared" si="0"/>
         <v>3.0263157894736921</v>
       </c>
@@ -2835,7 +3041,7 @@
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="28">
+      <c r="A59" s="19">
         <f t="shared" si="0"/>
         <v>3.000000000000008</v>
       </c>
@@ -2859,7 +3065,7 @@
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="28">
+      <c r="A60" s="19">
         <f t="shared" si="0"/>
         <v>2.9736842105263239</v>
       </c>
@@ -2879,7 +3085,7 @@
       <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="28">
+      <c r="A61" s="19">
         <f t="shared" si="0"/>
         <v>2.9473684210526399</v>
       </c>
@@ -2899,7 +3105,7 @@
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
+      <c r="A62" s="19">
         <f t="shared" si="0"/>
         <v>2.9210526315789558</v>
       </c>
@@ -2919,7 +3125,7 @@
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="28">
+      <c r="A63" s="19">
         <f t="shared" si="0"/>
         <v>2.8947368421052717</v>
       </c>
@@ -2943,7 +3149,7 @@
       <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="28">
+      <c r="A64" s="19">
         <f t="shared" si="0"/>
         <v>2.8684210526315876</v>
       </c>
@@ -2965,7 +3171,7 @@
       <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="28">
+      <c r="A65" s="19">
         <f t="shared" si="0"/>
         <v>2.8421052631579036</v>
       </c>
@@ -2985,7 +3191,7 @@
       <c r="K65" s="4"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="28">
+      <c r="A66" s="19">
         <f t="shared" si="0"/>
         <v>2.8157894736842195</v>
       </c>
@@ -3007,7 +3213,7 @@
       <c r="K66" s="4"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="28">
+      <c r="A67" s="19">
         <f t="shared" si="0"/>
         <v>2.7894736842105354</v>
       </c>
@@ -3031,7 +3237,7 @@
       <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="28">
+      <c r="A68" s="19">
         <f t="shared" ref="A68:A131" si="1">A67-4/152</f>
         <v>2.7631578947368514</v>
       </c>
@@ -3059,7 +3265,7 @@
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="28">
+      <c r="A69" s="19">
         <f t="shared" si="1"/>
         <v>2.7368421052631673</v>
       </c>
@@ -3085,7 +3291,7 @@
       <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="28">
+      <c r="A70" s="19">
         <f t="shared" si="1"/>
         <v>2.7105263157894832</v>
       </c>
@@ -3107,7 +3313,7 @@
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="28">
+      <c r="A71" s="19">
         <f t="shared" si="1"/>
         <v>2.6842105263157992</v>
       </c>
@@ -3129,7 +3335,7 @@
       <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="28">
+      <c r="A72" s="19">
         <f t="shared" si="1"/>
         <v>2.6578947368421151</v>
       </c>
@@ -3153,7 +3359,7 @@
       <c r="K72" s="4"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
+      <c r="A73" s="19">
         <f t="shared" si="1"/>
         <v>2.631578947368431</v>
       </c>
@@ -3175,7 +3381,7 @@
       <c r="K73" s="4"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="28">
+      <c r="A74" s="19">
         <f t="shared" si="1"/>
         <v>2.6052631578947469</v>
       </c>
@@ -3195,7 +3401,7 @@
       <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="28">
+      <c r="A75" s="19">
         <f t="shared" si="1"/>
         <v>2.5789473684210629</v>
       </c>
@@ -3215,7 +3421,7 @@
       <c r="K75" s="4"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="28">
+      <c r="A76" s="19">
         <f t="shared" si="1"/>
         <v>2.5526315789473788</v>
       </c>
@@ -3237,7 +3443,7 @@
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="28">
+      <c r="A77" s="19">
         <f t="shared" si="1"/>
         <v>2.5263157894736947</v>
       </c>
@@ -3257,7 +3463,7 @@
       <c r="K77" s="4"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="28">
+      <c r="A78" s="19">
         <f t="shared" si="1"/>
         <v>2.5000000000000107</v>
       </c>
@@ -3277,7 +3483,7 @@
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="28">
+      <c r="A79" s="19">
         <f t="shared" si="1"/>
         <v>2.4736842105263266</v>
       </c>
@@ -3303,7 +3509,7 @@
       <c r="K79" s="4"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="28">
+      <c r="A80" s="19">
         <f t="shared" si="1"/>
         <v>2.4473684210526425</v>
       </c>
@@ -3325,7 +3531,7 @@
       <c r="K80" s="4"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="28">
+      <c r="A81" s="19">
         <f t="shared" si="1"/>
         <v>2.4210526315789584</v>
       </c>
@@ -3345,7 +3551,7 @@
       <c r="K81" s="4"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="28">
+      <c r="A82" s="19">
         <f t="shared" si="1"/>
         <v>2.3947368421052744</v>
       </c>
@@ -3365,7 +3571,7 @@
       <c r="K82" s="4"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="28">
+      <c r="A83" s="19">
         <f t="shared" si="1"/>
         <v>2.3684210526315903</v>
       </c>
@@ -3387,7 +3593,7 @@
       <c r="K83" s="4"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="28">
+      <c r="A84" s="19">
         <f t="shared" si="1"/>
         <v>2.3421052631579062</v>
       </c>
@@ -3411,7 +3617,7 @@
       <c r="K84" s="4"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="28">
+      <c r="A85" s="19">
         <f t="shared" si="1"/>
         <v>2.3157894736842222</v>
       </c>
@@ -3433,7 +3639,7 @@
       <c r="K85" s="4"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="28">
+      <c r="A86" s="19">
         <f t="shared" si="1"/>
         <v>2.2894736842105381</v>
       </c>
@@ -3453,7 +3659,7 @@
       <c r="K86" s="4"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="28">
+      <c r="A87" s="19">
         <f t="shared" si="1"/>
         <v>2.263157894736854</v>
       </c>
@@ -3477,7 +3683,7 @@
       <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="28">
+      <c r="A88" s="19">
         <f t="shared" si="1"/>
         <v>2.23684210526317</v>
       </c>
@@ -3503,7 +3709,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="28">
+      <c r="A89" s="19">
         <f t="shared" si="1"/>
         <v>2.2105263157894859</v>
       </c>
@@ -3523,7 +3729,7 @@
       <c r="K89" s="4"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="28">
+      <c r="A90" s="19">
         <f t="shared" si="1"/>
         <v>2.1842105263158018</v>
       </c>
@@ -3543,7 +3749,7 @@
       <c r="K90" s="4"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="28">
+      <c r="A91" s="19">
         <f t="shared" si="1"/>
         <v>2.1578947368421177</v>
       </c>
@@ -3567,7 +3773,7 @@
       <c r="K91" s="4"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="28">
+      <c r="A92" s="19">
         <f t="shared" si="1"/>
         <v>2.1315789473684337</v>
       </c>
@@ -3589,7 +3795,7 @@
       <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="28">
+      <c r="A93" s="19">
         <f t="shared" si="1"/>
         <v>2.1052631578947496</v>
       </c>
@@ -3611,7 +3817,7 @@
       <c r="K93" s="4"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="28">
+      <c r="A94" s="19">
         <f t="shared" si="1"/>
         <v>2.0789473684210655</v>
       </c>
@@ -3639,7 +3845,7 @@
       <c r="K94" s="4"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="28">
+      <c r="A95" s="19">
         <f t="shared" si="1"/>
         <v>2.0526315789473815</v>
       </c>
@@ -3663,7 +3869,7 @@
       <c r="K95" s="4"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="28">
+      <c r="A96" s="19">
         <f t="shared" si="1"/>
         <v>2.0263157894736974</v>
       </c>
@@ -3689,7 +3895,7 @@
       <c r="K96" s="4"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="28">
+      <c r="A97" s="19">
         <f t="shared" si="1"/>
         <v>2.0000000000000133</v>
       </c>
@@ -3711,7 +3917,7 @@
       <c r="K97" s="4"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="28">
+      <c r="A98" s="19">
         <f t="shared" si="1"/>
         <v>1.973684210526329</v>
       </c>
@@ -3733,7 +3939,7 @@
       <c r="K98" s="4"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="28">
+      <c r="A99" s="19">
         <f t="shared" si="1"/>
         <v>1.9473684210526447</v>
       </c>
@@ -3753,7 +3959,7 @@
       <c r="K99" s="4"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="28">
+      <c r="A100" s="19">
         <f t="shared" si="1"/>
         <v>1.9210526315789604</v>
       </c>
@@ -3775,7 +3981,7 @@
       <c r="K100" s="4"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="28">
+      <c r="A101" s="19">
         <f t="shared" si="1"/>
         <v>1.8947368421052762</v>
       </c>
@@ -3799,7 +4005,7 @@
       <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="28">
+      <c r="A102" s="19">
         <f t="shared" si="1"/>
         <v>1.8684210526315919</v>
       </c>
@@ -3825,7 +4031,7 @@
       <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="28">
+      <c r="A103" s="19">
         <f t="shared" si="1"/>
         <v>1.8421052631579076</v>
       </c>
@@ -3849,7 +4055,7 @@
       <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="28">
+      <c r="A104" s="19">
         <f t="shared" si="1"/>
         <v>1.8157894736842233</v>
       </c>
@@ -3873,7 +4079,7 @@
       <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="28">
+      <c r="A105" s="19">
         <f t="shared" si="1"/>
         <v>1.789473684210539</v>
       </c>
@@ -3899,7 +4105,7 @@
       <c r="K105" s="4"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="28">
+      <c r="A106" s="19">
         <f t="shared" si="1"/>
         <v>1.7631578947368547</v>
       </c>
@@ -3921,7 +4127,7 @@
       <c r="K106" s="4"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="28">
+      <c r="A107" s="19">
         <f t="shared" si="1"/>
         <v>1.7368421052631704</v>
       </c>
@@ -3941,7 +4147,7 @@
       <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="28">
+      <c r="A108" s="19">
         <f t="shared" si="1"/>
         <v>1.7105263157894861</v>
       </c>
@@ -3961,7 +4167,7 @@
       <c r="K108" s="4"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="28">
+      <c r="A109" s="19">
         <f t="shared" si="1"/>
         <v>1.6842105263158018</v>
       </c>
@@ -3983,7 +4189,7 @@
       <c r="K109" s="4"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="28">
+      <c r="A110" s="19">
         <f t="shared" si="1"/>
         <v>1.6578947368421175</v>
       </c>
@@ -4005,7 +4211,7 @@
       <c r="K110" s="4"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="28">
+      <c r="A111" s="19">
         <f t="shared" si="1"/>
         <v>1.6315789473684332</v>
       </c>
@@ -4031,7 +4237,7 @@
       <c r="K111" s="4"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="28">
+      <c r="A112" s="19">
         <f t="shared" si="1"/>
         <v>1.6052631578947489</v>
       </c>
@@ -4057,7 +4263,7 @@
       <c r="K112" s="4"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="28">
+      <c r="A113" s="19">
         <f t="shared" si="1"/>
         <v>1.5789473684210646</v>
       </c>
@@ -4079,7 +4285,7 @@
       <c r="K113" s="4"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="28">
+      <c r="A114" s="19">
         <f t="shared" si="1"/>
         <v>1.5526315789473804</v>
       </c>
@@ -4103,7 +4309,7 @@
       <c r="K114" s="4"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="28">
+      <c r="A115" s="19">
         <f t="shared" si="1"/>
         <v>1.5263157894736961</v>
       </c>
@@ -4125,7 +4331,7 @@
       <c r="K115" s="4"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="28">
+      <c r="A116" s="19">
         <f t="shared" si="1"/>
         <v>1.5000000000000118</v>
       </c>
@@ -4145,7 +4351,7 @@
       <c r="K116" s="4"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="28">
+      <c r="A117" s="19">
         <f t="shared" si="1"/>
         <v>1.4736842105263275</v>
       </c>
@@ -4167,7 +4373,7 @@
       <c r="K117" s="4"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="28">
+      <c r="A118" s="19">
         <f t="shared" si="1"/>
         <v>1.4473684210526432</v>
       </c>
@@ -4187,7 +4393,7 @@
       <c r="K118" s="4"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="28">
+      <c r="A119" s="19">
         <f t="shared" si="1"/>
         <v>1.4210526315789589</v>
       </c>
@@ -4207,7 +4413,7 @@
       <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="28">
+      <c r="A120" s="19">
         <f t="shared" si="1"/>
         <v>1.3947368421052746</v>
       </c>
@@ -4229,7 +4435,7 @@
       <c r="K120" s="4"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="28">
+      <c r="A121" s="19">
         <f t="shared" si="1"/>
         <v>1.3684210526315903</v>
       </c>
@@ -4253,7 +4459,7 @@
       <c r="K121" s="4"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="28">
+      <c r="A122" s="19">
         <f t="shared" si="1"/>
         <v>1.342105263157906</v>
       </c>
@@ -4277,7 +4483,7 @@
       <c r="K122" s="4"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="28">
+      <c r="A123" s="19">
         <f t="shared" si="1"/>
         <v>1.3157894736842217</v>
       </c>
@@ -4299,7 +4505,7 @@
       <c r="K123" s="4"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="28">
+      <c r="A124" s="19">
         <f t="shared" si="1"/>
         <v>1.2894736842105374</v>
       </c>
@@ -4321,7 +4527,7 @@
       <c r="K124" s="4"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="28">
+      <c r="A125" s="19">
         <f t="shared" si="1"/>
         <v>1.2631578947368531</v>
       </c>
@@ -4343,7 +4549,7 @@
       <c r="K125" s="4"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="28">
+      <c r="A126" s="19">
         <f t="shared" si="1"/>
         <v>1.2368421052631688</v>
       </c>
@@ -4365,7 +4571,7 @@
       <c r="K126" s="4"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="28">
+      <c r="A127" s="19">
         <f t="shared" si="1"/>
         <v>1.2105263157894846</v>
       </c>
@@ -4385,7 +4591,7 @@
       <c r="K127" s="4"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="28">
+      <c r="A128" s="19">
         <f t="shared" si="1"/>
         <v>1.1842105263158003</v>
       </c>
@@ -4405,7 +4611,7 @@
       <c r="K128" s="4"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="28">
+      <c r="A129" s="19">
         <f t="shared" si="1"/>
         <v>1.157894736842116</v>
       </c>
@@ -4427,7 +4633,7 @@
       <c r="K129" s="4"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="28">
+      <c r="A130" s="19">
         <f t="shared" si="1"/>
         <v>1.1315789473684317</v>
       </c>
@@ -4449,7 +4655,7 @@
       <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="28">
+      <c r="A131" s="19">
         <f t="shared" si="1"/>
         <v>1.1052631578947474</v>
       </c>
@@ -4473,7 +4679,7 @@
       <c r="K131" s="4"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="28">
+      <c r="A132" s="19">
         <f t="shared" ref="A132:A154" si="2">A131-4/152</f>
         <v>1.0789473684210631</v>
       </c>
@@ -4493,7 +4699,7 @@
       <c r="K132" s="4"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="28">
+      <c r="A133" s="19">
         <f t="shared" si="2"/>
         <v>1.0526315789473788</v>
       </c>
@@ -4513,7 +4719,7 @@
       <c r="K133" s="4"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="28">
+      <c r="A134" s="19">
         <f t="shared" si="2"/>
         <v>1.0263157894736945</v>
       </c>
@@ -4533,7 +4739,7 @@
       <c r="K134" s="4"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="28">
+      <c r="A135" s="19">
         <f t="shared" si="2"/>
         <v>1.0000000000000102</v>
       </c>
@@ -4553,7 +4759,7 @@
       <c r="K135" s="4"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="28">
+      <c r="A136" s="19">
         <f t="shared" si="2"/>
         <v>0.97368421052632603</v>
       </c>
@@ -4573,7 +4779,7 @@
       <c r="K136" s="4"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="28">
+      <c r="A137" s="19">
         <f t="shared" si="2"/>
         <v>0.94736842105264185</v>
       </c>
@@ -4595,7 +4801,7 @@
       <c r="K137" s="4"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="28">
+      <c r="A138" s="19">
         <f t="shared" si="2"/>
         <v>0.92105263157895767</v>
       </c>
@@ -4615,7 +4821,7 @@
       <c r="K138" s="4"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="28">
+      <c r="A139" s="19">
         <f t="shared" si="2"/>
         <v>0.89473684210527349</v>
       </c>
@@ -4637,7 +4843,7 @@
       <c r="K139" s="4"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="28">
+      <c r="A140" s="19">
         <f t="shared" si="2"/>
         <v>0.86842105263158931</v>
       </c>
@@ -4661,7 +4867,7 @@
       <c r="K140" s="4"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="28">
+      <c r="A141" s="19">
         <f t="shared" si="2"/>
         <v>0.84210526315790513</v>
       </c>
@@ -4681,7 +4887,7 @@
       <c r="K141" s="4"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="28">
+      <c r="A142" s="19">
         <f t="shared" si="2"/>
         <v>0.81578947368422094</v>
       </c>
@@ -4701,7 +4907,7 @@
       <c r="K142" s="4"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="28">
+      <c r="A143" s="19">
         <f t="shared" si="2"/>
         <v>0.78947368421053676</v>
       </c>
@@ -4721,7 +4927,7 @@
       <c r="K143" s="4"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="28">
+      <c r="A144" s="19">
         <f t="shared" si="2"/>
         <v>0.76315789473685258</v>
       </c>
@@ -4743,7 +4949,7 @@
       <c r="K144" s="4"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="28">
+      <c r="A145" s="19">
         <f t="shared" si="2"/>
         <v>0.7368421052631684</v>
       </c>
@@ -4763,7 +4969,7 @@
       <c r="K145" s="4"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="28">
+      <c r="A146" s="19">
         <f t="shared" si="2"/>
         <v>0.71052631578948422</v>
       </c>
@@ -4783,7 +4989,7 @@
       <c r="K146" s="4"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="28">
+      <c r="A147" s="19">
         <f t="shared" si="2"/>
         <v>0.68421052631580004</v>
       </c>
@@ -4803,7 +5009,7 @@
       <c r="K147" s="4"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="28">
+      <c r="A148" s="19">
         <f t="shared" si="2"/>
         <v>0.65789473684211586</v>
       </c>
@@ -4825,7 +5031,7 @@
       <c r="K148" s="4"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="28">
+      <c r="A149" s="19">
         <f t="shared" si="2"/>
         <v>0.63157894736843168</v>
       </c>
@@ -4845,7 +5051,7 @@
       <c r="K149" s="4"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="28">
+      <c r="A150" s="19">
         <f t="shared" si="2"/>
         <v>0.60526315789474749</v>
       </c>
@@ -4865,7 +5071,7 @@
       <c r="K150" s="4"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="28">
+      <c r="A151" s="19">
         <f t="shared" si="2"/>
         <v>0.57894736842106331</v>
       </c>
@@ -4887,7 +5093,7 @@
       <c r="K151" s="4"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="28">
+      <c r="A152" s="19">
         <f t="shared" si="2"/>
         <v>0.55263157894737913</v>
       </c>
@@ -4909,7 +5115,7 @@
       <c r="K152" s="4"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="28">
+      <c r="A153" s="19">
         <f t="shared" si="2"/>
         <v>0.52631578947369495</v>
       </c>
@@ -4931,7 +5137,7 @@
       <c r="K153" s="4"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="28">
+      <c r="A154" s="19">
         <f t="shared" si="2"/>
         <v>0.50000000000001077</v>
       </c>
@@ -8346,2196 +8552,2996 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="22">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="22">
+        <v>2</v>
+      </c>
+      <c r="F11" s="23">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="22">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="22">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="22">
+        <v>2</v>
+      </c>
+      <c r="F16" s="23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="E18" s="22">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="22">
+        <v>3</v>
+      </c>
+      <c r="F19" s="23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="22">
+        <v>2</v>
+      </c>
+      <c r="F21" s="23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="22">
+        <v>2</v>
+      </c>
+      <c r="F24" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" s="22">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="22">
+        <v>2</v>
+      </c>
+      <c r="F27" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="22">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" s="22">
+        <v>2</v>
+      </c>
+      <c r="F29" s="23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="22">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2</v>
+      </c>
+      <c r="F32" s="23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="22">
+        <v>2</v>
+      </c>
+      <c r="F34" s="23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1</v>
+      </c>
+      <c r="F35" s="23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" s="22">
+        <v>2</v>
+      </c>
+      <c r="F36" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="22">
+        <v>3</v>
+      </c>
+      <c r="F37" s="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" s="22">
+        <v>4</v>
+      </c>
+      <c r="F38" s="23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="22">
+        <v>1</v>
+      </c>
+      <c r="F39" s="23">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="22">
+        <v>2</v>
+      </c>
+      <c r="F40" s="23">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" s="22">
+        <v>3</v>
+      </c>
+      <c r="F41" s="23">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="22">
+        <v>4</v>
+      </c>
+      <c r="F42" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="22">
+        <v>5</v>
+      </c>
+      <c r="F43" s="23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E44" s="22">
+        <v>6</v>
+      </c>
+      <c r="F44" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="E45" s="22">
+        <v>6</v>
+      </c>
+      <c r="F45" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1</v>
+      </c>
+      <c r="F46" s="23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="22">
+        <v>2</v>
+      </c>
+      <c r="F47" s="23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="22">
+        <v>1</v>
+      </c>
+      <c r="F48" s="23">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="22">
+        <v>2</v>
+      </c>
+      <c r="F49" s="23">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="22">
+        <v>3</v>
+      </c>
+      <c r="F50" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="22">
+        <v>4</v>
+      </c>
+      <c r="F51" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="E52" s="22">
+        <v>4</v>
+      </c>
+      <c r="F52" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="22">
+        <v>1</v>
+      </c>
+      <c r="F53" s="23">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" s="22">
+        <v>2</v>
+      </c>
+      <c r="F54" s="23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E55" s="22">
+        <v>3</v>
+      </c>
+      <c r="F55" s="23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="22">
+        <v>4</v>
+      </c>
+      <c r="F56" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="22">
+        <v>1</v>
+      </c>
+      <c r="F57" s="23">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="E58" s="22">
+        <v>1</v>
+      </c>
+      <c r="F58" s="23">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="22">
+        <v>2</v>
+      </c>
+      <c r="F59" s="23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E60" s="22">
+        <v>2</v>
+      </c>
+      <c r="F60" s="23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61" s="22">
+        <v>1</v>
+      </c>
+      <c r="F61" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="22">
+        <v>1</v>
+      </c>
+      <c r="F62" s="23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" s="22">
+        <v>2</v>
+      </c>
+      <c r="F63" s="23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" s="22">
+        <v>1</v>
+      </c>
+      <c r="F64" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="22">
+        <v>2</v>
+      </c>
+      <c r="F65" s="23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E66" s="22">
+        <v>1</v>
+      </c>
+      <c r="F66" s="23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" s="22">
+        <v>1</v>
+      </c>
+      <c r="F67" s="23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E68" s="22">
+        <v>2</v>
+      </c>
+      <c r="F68" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="22">
+        <v>1</v>
+      </c>
+      <c r="F69" s="23">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" s="22">
+        <v>2</v>
+      </c>
+      <c r="F70" s="23">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="22">
+        <v>1</v>
+      </c>
+      <c r="F71" s="23">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="22">
+        <v>2</v>
+      </c>
+      <c r="F72" s="23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E73" s="22">
+        <v>3</v>
+      </c>
+      <c r="F73" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E74" s="22">
+        <v>3</v>
+      </c>
+      <c r="F74" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E75" s="22">
+        <v>4</v>
+      </c>
+      <c r="F75" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="24" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="E76" s="22">
+        <v>4</v>
+      </c>
+      <c r="F76" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" s="22">
+        <v>1</v>
+      </c>
+      <c r="F77" s="23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78" s="22">
+        <v>2</v>
+      </c>
+      <c r="F78" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="D79" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="F79" s="23">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" s="22">
+        <v>1</v>
+      </c>
+      <c r="F80" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E81" s="22">
+        <v>2</v>
+      </c>
+      <c r="F81" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" s="22">
+        <v>1</v>
+      </c>
+      <c r="F82" s="23">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="22">
+        <v>2</v>
+      </c>
+      <c r="F83" s="23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="D84" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E84" s="22">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="F84" s="23">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C85" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="D85" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="22">
+        <v>2</v>
+      </c>
+      <c r="F85" s="23">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="22">
         <v>1</v>
       </c>
-      <c r="E9" s="23">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="F86" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C87" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="D87" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E87" s="22">
         <v>1</v>
       </c>
-      <c r="E10" s="23">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="F87" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="D88" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E88" s="22">
+        <v>2</v>
+      </c>
+      <c r="F88" s="23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E89" s="22">
+        <v>3</v>
+      </c>
+      <c r="F89" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="23">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="F90" s="23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="22">
+        <v>2</v>
+      </c>
+      <c r="F91" s="23">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92" s="22">
+        <v>3</v>
+      </c>
+      <c r="F92" s="23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E93" s="22">
+        <v>4</v>
+      </c>
+      <c r="F93" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="D94" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="22">
+        <v>1</v>
+      </c>
+      <c r="F94" s="23">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" s="22">
+        <v>1</v>
+      </c>
+      <c r="F95" s="23">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E96" s="22">
+        <v>1</v>
+      </c>
+      <c r="F96" s="23">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E97" s="22">
+        <v>2</v>
+      </c>
+      <c r="F97" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="B98" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="22">
+      <c r="E98" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="23">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="F98" s="23">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="D99" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="E99" s="22">
         <v>1</v>
       </c>
-      <c r="E13" s="23">
+      <c r="F99" s="23">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="21" t="s">
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="D100" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E100" s="22">
+        <v>2</v>
+      </c>
+      <c r="F100" s="23">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="22">
+        <v>3</v>
+      </c>
+      <c r="F101" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E102" s="22">
+        <v>4</v>
+      </c>
+      <c r="F102" s="23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E103" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="F103" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E104" s="22">
+        <v>2</v>
+      </c>
+      <c r="F104" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E105" s="22">
         <v>1</v>
       </c>
-      <c r="E15" s="23">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="F105" s="23">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C106" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="D106" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" s="22">
+        <v>2</v>
+      </c>
+      <c r="F106" s="23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C107" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="22">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="22">
-        <v>2</v>
-      </c>
-      <c r="E24" s="23">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="22">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="22">
-        <v>1</v>
-      </c>
-      <c r="E26" s="23">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="22">
-        <v>1</v>
-      </c>
-      <c r="E27" s="23">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1</v>
-      </c>
-      <c r="E28" s="23">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="22">
-        <v>1</v>
-      </c>
-      <c r="E29" s="23">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="22">
-        <v>1</v>
-      </c>
-      <c r="E30" s="23">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="22">
-        <v>1</v>
-      </c>
-      <c r="E31" s="23">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="22">
-        <v>1</v>
-      </c>
-      <c r="E32" s="23">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1</v>
-      </c>
-      <c r="E33" s="23">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="22">
-        <v>1</v>
-      </c>
-      <c r="E34" s="23">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="22">
-        <v>1</v>
-      </c>
-      <c r="E35" s="23">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="22">
-        <v>2</v>
-      </c>
-      <c r="E36" s="23">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="22">
-        <v>1</v>
-      </c>
-      <c r="E37" s="23">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="22">
-        <v>1</v>
-      </c>
-      <c r="E38" s="23">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="22">
-        <v>1</v>
-      </c>
-      <c r="E39" s="23">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="22">
-        <v>1</v>
-      </c>
-      <c r="E40" s="23">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D41" s="22">
-        <v>2</v>
-      </c>
-      <c r="E41" s="23">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="22">
-        <v>1</v>
-      </c>
-      <c r="E42" s="23">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="22">
-        <v>2</v>
-      </c>
-      <c r="E43" s="23">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="22">
-        <v>1</v>
-      </c>
-      <c r="E44" s="23">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="22">
-        <v>2</v>
-      </c>
-      <c r="E45" s="23">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="22">
-        <v>1</v>
-      </c>
-      <c r="E46" s="23">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" s="22">
-        <v>2</v>
-      </c>
-      <c r="E47" s="23">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="22">
-        <v>1</v>
-      </c>
-      <c r="E48" s="23">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D49" s="22">
-        <v>1</v>
-      </c>
-      <c r="E49" s="23">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="22">
-        <v>2</v>
-      </c>
-      <c r="E50" s="23">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="22">
-        <v>1</v>
-      </c>
-      <c r="E51" s="23">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="22">
-        <v>2</v>
-      </c>
-      <c r="E52" s="23">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" s="22">
-        <v>1</v>
-      </c>
-      <c r="E53" s="23">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="22">
+      <c r="D107" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E107" s="22">
         <v>3</v>
       </c>
-      <c r="E54" s="23">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="22">
-        <v>2</v>
-      </c>
-      <c r="E55" s="23">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" s="22">
-        <v>1</v>
-      </c>
-      <c r="E56" s="23">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D57" s="22">
-        <v>2</v>
-      </c>
-      <c r="E57" s="23">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D58" s="22">
-        <v>2</v>
-      </c>
-      <c r="E58" s="23">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" s="22">
-        <v>1</v>
-      </c>
-      <c r="E59" s="23">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" s="22">
-        <v>2</v>
-      </c>
-      <c r="E60" s="23">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61" s="22">
-        <v>2</v>
-      </c>
-      <c r="E61" s="23">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" s="22">
-        <v>2</v>
-      </c>
-      <c r="E62" s="23">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D63" s="22">
-        <v>1</v>
-      </c>
-      <c r="E63" s="23">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="22">
-        <v>3</v>
-      </c>
-      <c r="E64" s="23">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D65" s="22">
-        <v>2</v>
-      </c>
-      <c r="E65" s="23">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" s="22">
-        <v>2</v>
-      </c>
-      <c r="E66" s="23">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D67" s="22">
-        <v>2</v>
-      </c>
-      <c r="E67" s="23">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D68" s="22">
-        <v>2</v>
-      </c>
-      <c r="E68" s="23">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D69" s="22">
-        <v>3</v>
-      </c>
-      <c r="E69" s="23">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D70" s="22">
-        <v>2</v>
-      </c>
-      <c r="E70" s="23">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D71" s="22">
-        <v>2</v>
-      </c>
-      <c r="E71" s="23">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D72" s="22">
-        <v>3</v>
-      </c>
-      <c r="E72" s="23">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" s="22">
-        <v>2</v>
-      </c>
-      <c r="E73" s="23">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="D74" s="22">
-        <v>2</v>
-      </c>
-      <c r="E74" s="23">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D75" s="22">
-        <v>2</v>
-      </c>
-      <c r="E75" s="23">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="D76" s="22">
-        <v>2</v>
-      </c>
-      <c r="E76" s="23">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D77" s="22">
-        <v>1</v>
-      </c>
-      <c r="E77" s="23">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D78" s="22">
-        <v>2</v>
-      </c>
-      <c r="E78" s="23">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D79" s="22">
-        <v>2</v>
-      </c>
-      <c r="E79" s="23">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D80" s="22">
-        <v>1</v>
-      </c>
-      <c r="E80" s="23">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D81" s="22">
-        <v>3</v>
-      </c>
-      <c r="E81" s="23">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D82" s="22">
-        <v>4</v>
-      </c>
-      <c r="E82" s="23">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D83" s="22">
-        <v>2</v>
-      </c>
-      <c r="E83" s="23">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="D84" s="22">
-        <v>4</v>
-      </c>
-      <c r="E84" s="23">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D85" s="22">
-        <v>3</v>
-      </c>
-      <c r="E85" s="23">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D86" s="22">
-        <v>2</v>
-      </c>
-      <c r="E86" s="23">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="22">
-        <v>2</v>
-      </c>
-      <c r="E87" s="23">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D88" s="22">
-        <v>2</v>
-      </c>
-      <c r="E88" s="23">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D89" s="22">
-        <v>3</v>
-      </c>
-      <c r="E89" s="23">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D90" s="22">
-        <v>2</v>
-      </c>
-      <c r="E90" s="23">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="D91" s="22">
-        <v>2</v>
-      </c>
-      <c r="E91" s="23">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="D92" s="22">
-        <v>2</v>
-      </c>
-      <c r="E92" s="23">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D93" s="22">
-        <v>2</v>
-      </c>
-      <c r="E93" s="23">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D94" s="22">
-        <v>2</v>
-      </c>
-      <c r="E94" s="23">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D95" s="22">
-        <v>2</v>
-      </c>
-      <c r="E95" s="23">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D96" s="22">
-        <v>3</v>
-      </c>
-      <c r="E96" s="23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D97" s="22">
-        <v>1</v>
-      </c>
-      <c r="E97" s="23">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D98" s="22">
-        <v>1</v>
-      </c>
-      <c r="E98" s="23">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D99" s="22">
-        <v>4</v>
-      </c>
-      <c r="E99" s="23">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="D100" s="22">
-        <v>1</v>
-      </c>
-      <c r="E100" s="23">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D101" s="22">
-        <v>2</v>
-      </c>
-      <c r="E101" s="23">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D102" s="22">
-        <v>3</v>
-      </c>
-      <c r="E102" s="23">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D103" s="22">
-        <v>4</v>
-      </c>
-      <c r="E103" s="23">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="D104" s="22">
-        <v>2</v>
-      </c>
-      <c r="E104" s="23">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D105" s="22">
-        <v>2</v>
-      </c>
-      <c r="E105" s="23">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B106" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="D106" s="22">
-        <v>5</v>
-      </c>
-      <c r="E106" s="23">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="D107" s="22">
-        <v>2</v>
-      </c>
-      <c r="E107" s="23">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="D108" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E108" s="22">
+        <v>1</v>
+      </c>
+      <c r="F108" s="23">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="E109" s="22">
+        <v>1</v>
+      </c>
+      <c r="F109" s="23">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E110" s="22">
+        <v>2</v>
+      </c>
+      <c r="F110" s="23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" s="22">
+        <v>1</v>
+      </c>
+      <c r="F111" s="23">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E112" s="22">
+        <v>2</v>
+      </c>
+      <c r="F112" s="23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E113" s="22">
+        <v>3</v>
+      </c>
+      <c r="F113" s="23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E114" s="22">
+        <v>4</v>
+      </c>
+      <c r="F114" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E115" s="22">
+        <v>1</v>
+      </c>
+      <c r="F115" s="23">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E116" s="22">
+        <v>2</v>
+      </c>
+      <c r="F116" s="23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E117" s="22">
+        <v>2</v>
+      </c>
+      <c r="F117" s="23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E118" s="22">
+        <v>1</v>
+      </c>
+      <c r="F118" s="23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E119" s="22">
+        <v>1</v>
+      </c>
+      <c r="F119" s="23">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E120" s="22">
+        <v>2</v>
+      </c>
+      <c r="F120" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="22">
+        <v>1</v>
+      </c>
+      <c r="F121" s="23">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E122" s="22">
+        <v>2</v>
+      </c>
+      <c r="F122" s="23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E123" s="22">
+        <v>1</v>
+      </c>
+      <c r="F123" s="23">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E124" s="22">
+        <v>2</v>
+      </c>
+      <c r="F124" s="23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E125" s="22">
+        <v>1</v>
+      </c>
+      <c r="F125" s="23">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="E126" s="22">
+        <v>2</v>
+      </c>
+      <c r="F126" s="23">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E127" s="22">
+        <v>2</v>
+      </c>
+      <c r="F127" s="23">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E128" s="22">
+        <v>3</v>
+      </c>
+      <c r="F128" s="23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E129" s="22">
+        <v>3</v>
+      </c>
+      <c r="F129" s="23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E130" s="22">
+        <v>4</v>
+      </c>
+      <c r="F130" s="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E131" s="22">
+        <v>4</v>
+      </c>
+      <c r="F131" s="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E132" s="22">
+        <v>1</v>
+      </c>
+      <c r="F132" s="23">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E133" s="22">
+        <v>2</v>
+      </c>
+      <c r="F133" s="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E134" s="22">
+        <v>3</v>
+      </c>
+      <c r="F134" s="23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E135" s="22">
+        <v>4</v>
+      </c>
+      <c r="F135" s="23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E136" s="22">
+        <v>1</v>
+      </c>
+      <c r="F136" s="23">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E137" s="22">
+        <v>1</v>
+      </c>
+      <c r="F137" s="23">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" s="22">
+        <v>2</v>
+      </c>
+      <c r="F138" s="23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E139" s="22">
+        <v>2</v>
+      </c>
+      <c r="F139" s="23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140" s="22">
+        <v>1</v>
+      </c>
+      <c r="F140" s="23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E141" s="22">
+        <v>2</v>
+      </c>
+      <c r="F141" s="23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="E142" s="22">
+        <v>3</v>
+      </c>
+      <c r="F142" s="23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E143" s="22">
+        <v>1</v>
+      </c>
+      <c r="F143" s="23">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E144" s="22">
+        <v>1</v>
+      </c>
+      <c r="F144" s="23">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E145" s="22">
+        <v>2</v>
+      </c>
+      <c r="F145" s="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E146" s="22">
+        <v>1</v>
+      </c>
+      <c r="F146" s="23">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E147" s="22">
+        <v>1</v>
+      </c>
+      <c r="F147" s="23">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E148" s="22">
+        <v>2</v>
+      </c>
+      <c r="F148" s="23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E149" s="22">
+        <v>1</v>
+      </c>
+      <c r="F149" s="23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="D108" s="22">
-        <v>3</v>
-      </c>
-      <c r="E108" s="23">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B109" s="21" t="s">
+      <c r="B150" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C150" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="D150" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="D109" s="22">
-        <v>3</v>
-      </c>
-      <c r="E109" s="23">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B110" s="21" t="s">
+      <c r="E150" s="22">
+        <v>1</v>
+      </c>
+      <c r="F150" s="23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C151" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C110" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D110" s="22">
-        <v>4</v>
-      </c>
-      <c r="E110" s="23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="D111" s="22">
+      <c r="D151" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E151" s="29">
         <v>2</v>
       </c>
-      <c r="E111" s="23">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="D112" s="22">
-        <v>3</v>
-      </c>
-      <c r="E112" s="23">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="D113" s="22">
-        <v>1</v>
-      </c>
-      <c r="E113" s="23">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D114" s="22">
-        <v>1</v>
-      </c>
-      <c r="E114" s="23">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D115" s="22">
-        <v>1</v>
-      </c>
-      <c r="E115" s="23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B116" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D116" s="22">
-        <v>2</v>
-      </c>
-      <c r="E116" s="23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="D117" s="22">
-        <v>4</v>
-      </c>
-      <c r="E117" s="23">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B118" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D118" s="22">
-        <v>3</v>
-      </c>
-      <c r="E118" s="23">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B119" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D119" s="22">
-        <v>1</v>
-      </c>
-      <c r="E119" s="23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D120" s="22">
-        <v>4</v>
-      </c>
-      <c r="E120" s="23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="D121" s="22">
-        <v>4</v>
-      </c>
-      <c r="E121" s="23">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D122" s="22">
-        <v>1</v>
-      </c>
-      <c r="E122" s="23">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="D123" s="22">
-        <v>6</v>
-      </c>
-      <c r="E123" s="23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="D124" s="22">
-        <v>6</v>
-      </c>
-      <c r="E124" s="23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D125" s="22">
-        <v>2</v>
-      </c>
-      <c r="E125" s="23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D126" s="22">
-        <v>2</v>
-      </c>
-      <c r="E126" s="23">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D127" s="22">
-        <v>2</v>
-      </c>
-      <c r="E127" s="23">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D128" s="22">
-        <v>3</v>
-      </c>
-      <c r="E128" s="23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D129" s="22">
-        <v>2</v>
-      </c>
-      <c r="E129" s="23">
+      <c r="F151" s="30">
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C130" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="D130" s="26">
-        <v>1</v>
-      </c>
-      <c r="E130" s="27">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A6:E130" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="England"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A6:F151" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F151">
+      <sortCondition ref="A6:A151"/>
+    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
